--- a/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
+++ b/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8184" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="425">
   <si>
     <t>Quản trị viên hệ thống</t>
   </si>
@@ -1295,12 +1295,15 @@
   </si>
   <si>
     <t>https://robohash.org/409f6ac3dcb024217c0f1adb60b346657fa?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>nguyenlinh1998adhp@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1671,13 +1674,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1730,9 +1733,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>325</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>330</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>332</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>332</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>330</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>330</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>332</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>332</v>
       </c>
@@ -1930,13 +1933,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>249</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>246</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>245</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>239</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>238</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>237</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>229</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>228</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -2126,14 +2129,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>177</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>71</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -3071,13 +3074,13 @@
       <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>251</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>17</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>18</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>21</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>21</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>21</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>22</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>22</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>23</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>24</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>24</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>25</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>25</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>26</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>26</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>26</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>26</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>27</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>27</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>28</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>28</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>29</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>29</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>30</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>31</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>31</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>31</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>31</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>32</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>32</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>33</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>33</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>34</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>34</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>35</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>35</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>36</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>36</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>36</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>36</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>37</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>37</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>38</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>38</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>38</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>39</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>39</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>40</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>40</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>40</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>40</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>41</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>41</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>42</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>42</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>43</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>43</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>44</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>44</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>44</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>44</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>45</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>45</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>45</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>46</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>46</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>46</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>47</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>47</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>47</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>48</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>48</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>48</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>48</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>49</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>49</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>50</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>50</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>51</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>51</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>52</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>52</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>53</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>53</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>54</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>54</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>55</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>55</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>56</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>56</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>56</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>56</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>57</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>58</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>58</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>59</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>59</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>60</v>
       </c>
@@ -4277,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>60</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>61</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>61</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>62</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>62</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>63</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>63</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>64</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>64</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>65</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>65</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>66</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>66</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>67</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>67</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>68</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>68</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>69</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>69</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>70</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>71</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>72</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>72</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>73</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>73</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>74</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>74</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>75</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>75</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>76</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>76</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>76</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>77</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>77</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>77</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>78</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>78</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>78</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>79</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>79</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>79</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>80</v>
       </c>
@@ -4613,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>81</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>82</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>83</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4654,21 +4657,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="84.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="80.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>323</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>320</v>
       </c>
@@ -4702,7 +4705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>317</v>
       </c>
@@ -4719,7 +4722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>314</v>
       </c>
@@ -4736,7 +4739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>311</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>308</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>306</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>304</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>302</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>300</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>298</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>296</v>
       </c>
@@ -4872,7 +4875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>294</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>292</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>290</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>288</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>286</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>284</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>282</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>280</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>278</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>276</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>274</v>
       </c>
@@ -5059,7 +5062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>272</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>270</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>268</v>
       </c>
@@ -5110,7 +5113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>266</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>264</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>262</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>260</v>
       </c>
@@ -5178,7 +5181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>415</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>414</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>413</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>412</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>411</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>410</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>409</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>417</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>416</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>418</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>419</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>420</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>421</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>422</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>423</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>408</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>407</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>406</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>405</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>404</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>403</v>
       </c>
@@ -5574,15 +5577,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5610,7 +5613,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5638,7 +5641,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5665,14 +5668,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5714,22 +5717,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -5783,8 +5786,8 @@
       <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
+      <c r="G2" t="s">
+        <v>424</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -5799,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -5869,17 +5872,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5893,17 +5895,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -5973,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>383</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>378</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>372</v>
       </c>
@@ -6113,7 +6115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>367</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>364</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>361</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>359</v>
       </c>
@@ -6253,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>356</v>
       </c>
@@ -6288,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>353</v>
       </c>
@@ -6323,7 +6325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>351</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>348</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>345</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>342</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>339</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>336</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
     </row>
   </sheetData>

--- a/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
+++ b/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="6" r:id="rId1"/>
@@ -5664,8 +5664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5694,7 +5694,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>150000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5705,7 +5705,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -5717,7 +5717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
+++ b/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="424">
   <si>
     <t>Quản trị viên hệ thống</t>
   </si>
@@ -1181,9 +1181,6 @@
   </si>
   <si>
     <t>1980/12/26</t>
-  </si>
-  <si>
-    <t>linhnv.teky@gmail.com</t>
   </si>
   <si>
     <t>giaovien36</t>
@@ -1303,7 +1300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1674,13 +1671,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1696,7 +1693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1704,7 +1701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1712,7 +1709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1733,9 +1730,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>325</v>
       </c>
@@ -1752,7 +1749,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -1766,7 +1763,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -1780,7 +1777,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>330</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -1808,7 +1805,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>332</v>
       </c>
@@ -1822,7 +1819,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>332</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>330</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>330</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -1892,7 +1889,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>332</v>
       </c>
@@ -1906,7 +1903,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>332</v>
       </c>
@@ -1933,13 +1930,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>249</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>246</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>245</v>
       </c>
@@ -1971,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -1979,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -1987,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -1995,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -2003,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -2011,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>239</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>238</v>
       </c>
@@ -2027,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>237</v>
       </c>
@@ -2035,7 +2032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -2067,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -2083,7 +2080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -2091,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>229</v>
       </c>
@@ -2099,7 +2096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>228</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -2129,14 +2126,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2147,7 +2144,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2169,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -2180,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -2191,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -2213,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -2224,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -2235,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -2246,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -2257,7 +2254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -2268,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -2279,7 +2276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -2290,7 +2287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -2301,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -2312,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -2323,7 +2320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -2334,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -2345,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -2356,7 +2353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -2367,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -2389,7 +2386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -2400,7 +2397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>177</v>
       </c>
@@ -2422,7 +2419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -2433,7 +2430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -2444,7 +2441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -2455,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -2477,7 +2474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -2488,7 +2485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -2499,7 +2496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -2510,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2532,7 +2529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -2543,7 +2540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -2565,7 +2562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2576,7 +2573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -2587,7 +2584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -2598,7 +2595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -2609,7 +2606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -2620,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -2631,7 +2628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -2642,7 +2639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -2653,7 +2650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -2664,7 +2661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -2675,7 +2672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -2686,7 +2683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -2697,7 +2694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -2708,7 +2705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -2741,7 +2738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -2752,7 +2749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -2763,7 +2760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -2774,7 +2771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -2785,7 +2782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -2796,7 +2793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -2807,7 +2804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -2818,7 +2815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2829,7 +2826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -2840,7 +2837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -2851,7 +2848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -2862,7 +2859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -2873,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -2884,7 +2881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -2895,7 +2892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -2917,7 +2914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -2928,7 +2925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -2950,7 +2947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2961,7 +2958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2972,7 +2969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2983,7 +2980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -2994,7 +2991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>71</v>
       </c>
@@ -3005,7 +3002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -3027,7 +3024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -3038,7 +3035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -3049,7 +3046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -3074,13 +3071,13 @@
       <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>251</v>
       </c>
@@ -3088,7 +3085,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3104,7 +3101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3112,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3120,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3128,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3136,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3144,7 +3141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3152,7 +3149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3160,7 +3157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3168,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3176,7 +3173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -3184,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3192,7 +3189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -3200,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3208,7 +3205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
@@ -3216,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3224,7 +3221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3232,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3240,7 +3237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -3248,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10</v>
       </c>
@@ -3256,7 +3253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3264,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
@@ -3272,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12</v>
       </c>
@@ -3288,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
@@ -3296,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
@@ -3304,7 +3301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -3312,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
@@ -3320,7 +3317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3328,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -3336,7 +3333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>15</v>
       </c>
@@ -3344,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>15</v>
       </c>
@@ -3352,7 +3349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15</v>
       </c>
@@ -3360,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>16</v>
       </c>
@@ -3368,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>16</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>16</v>
       </c>
@@ -3384,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>17</v>
       </c>
@@ -3392,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>17</v>
       </c>
@@ -3400,7 +3397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>17</v>
       </c>
@@ -3408,7 +3405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>18</v>
       </c>
@@ -3416,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>18</v>
       </c>
@@ -3424,7 +3421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>18</v>
       </c>
@@ -3432,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>18</v>
       </c>
@@ -3440,7 +3437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>19</v>
       </c>
@@ -3448,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>19</v>
       </c>
@@ -3456,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>19</v>
       </c>
@@ -3464,7 +3461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20</v>
       </c>
@@ -3472,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>20</v>
       </c>
@@ -3480,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20</v>
       </c>
@@ -3488,7 +3485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>21</v>
       </c>
@@ -3496,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>21</v>
       </c>
@@ -3504,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>21</v>
       </c>
@@ -3512,7 +3509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>22</v>
       </c>
@@ -3520,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>22</v>
       </c>
@@ -3528,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>22</v>
       </c>
@@ -3536,7 +3533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>22</v>
       </c>
@@ -3544,7 +3541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>23</v>
       </c>
@@ -3552,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>23</v>
       </c>
@@ -3560,7 +3557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>24</v>
       </c>
@@ -3568,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>24</v>
       </c>
@@ -3576,7 +3573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>25</v>
       </c>
@@ -3584,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>25</v>
       </c>
@@ -3592,7 +3589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>26</v>
       </c>
@@ -3600,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>26</v>
       </c>
@@ -3608,7 +3605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>26</v>
       </c>
@@ -3616,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>26</v>
       </c>
@@ -3624,7 +3621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>27</v>
       </c>
@@ -3632,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>27</v>
       </c>
@@ -3640,7 +3637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>28</v>
       </c>
@@ -3648,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>28</v>
       </c>
@@ -3656,7 +3653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>29</v>
       </c>
@@ -3664,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>29</v>
       </c>
@@ -3672,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>30</v>
       </c>
@@ -3680,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>31</v>
       </c>
@@ -3688,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>31</v>
       </c>
@@ -3696,7 +3693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>31</v>
       </c>
@@ -3704,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>31</v>
       </c>
@@ -3712,7 +3709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>32</v>
       </c>
@@ -3720,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>32</v>
       </c>
@@ -3728,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>33</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>33</v>
       </c>
@@ -3744,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>34</v>
       </c>
@@ -3752,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>34</v>
       </c>
@@ -3760,7 +3757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>35</v>
       </c>
@@ -3768,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>35</v>
       </c>
@@ -3776,7 +3773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>36</v>
       </c>
@@ -3784,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>36</v>
       </c>
@@ -3792,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>36</v>
       </c>
@@ -3800,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>36</v>
       </c>
@@ -3808,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>37</v>
       </c>
@@ -3816,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>37</v>
       </c>
@@ -3824,7 +3821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>38</v>
       </c>
@@ -3832,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>38</v>
       </c>
@@ -3840,7 +3837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>38</v>
       </c>
@@ -3848,7 +3845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>39</v>
       </c>
@@ -3856,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>39</v>
       </c>
@@ -3864,7 +3861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>40</v>
       </c>
@@ -3872,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>40</v>
       </c>
@@ -3880,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>40</v>
       </c>
@@ -3888,7 +3885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>40</v>
       </c>
@@ -3896,7 +3893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>41</v>
       </c>
@@ -3904,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>41</v>
       </c>
@@ -3912,7 +3909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>42</v>
       </c>
@@ -3920,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>42</v>
       </c>
@@ -3928,7 +3925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>43</v>
       </c>
@@ -3936,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>43</v>
       </c>
@@ -3944,7 +3941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>44</v>
       </c>
@@ -3952,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>44</v>
       </c>
@@ -3960,7 +3957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>44</v>
       </c>
@@ -3968,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>44</v>
       </c>
@@ -3976,7 +3973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>45</v>
       </c>
@@ -3984,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>45</v>
       </c>
@@ -3992,7 +3989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>45</v>
       </c>
@@ -4000,7 +3997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>46</v>
       </c>
@@ -4008,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>46</v>
       </c>
@@ -4016,7 +4013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>46</v>
       </c>
@@ -4024,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>47</v>
       </c>
@@ -4032,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>47</v>
       </c>
@@ -4040,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>47</v>
       </c>
@@ -4048,7 +4045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>48</v>
       </c>
@@ -4056,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>48</v>
       </c>
@@ -4064,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>48</v>
       </c>
@@ -4072,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>48</v>
       </c>
@@ -4080,7 +4077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>49</v>
       </c>
@@ -4088,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>49</v>
       </c>
@@ -4096,7 +4093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>50</v>
       </c>
@@ -4104,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>50</v>
       </c>
@@ -4112,7 +4109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>51</v>
       </c>
@@ -4120,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>51</v>
       </c>
@@ -4128,7 +4125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>52</v>
       </c>
@@ -4136,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>52</v>
       </c>
@@ -4144,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>53</v>
       </c>
@@ -4152,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>53</v>
       </c>
@@ -4160,7 +4157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>54</v>
       </c>
@@ -4168,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>54</v>
       </c>
@@ -4176,7 +4173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>55</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>55</v>
       </c>
@@ -4192,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>56</v>
       </c>
@@ -4200,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>56</v>
       </c>
@@ -4208,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>56</v>
       </c>
@@ -4216,7 +4213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>56</v>
       </c>
@@ -4224,7 +4221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>57</v>
       </c>
@@ -4232,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>57</v>
       </c>
@@ -4240,7 +4237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>58</v>
       </c>
@@ -4248,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>58</v>
       </c>
@@ -4256,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>59</v>
       </c>
@@ -4264,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>59</v>
       </c>
@@ -4272,7 +4269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>60</v>
       </c>
@@ -4280,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>60</v>
       </c>
@@ -4288,7 +4285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>61</v>
       </c>
@@ -4296,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>61</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>62</v>
       </c>
@@ -4312,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>62</v>
       </c>
@@ -4320,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>63</v>
       </c>
@@ -4328,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>63</v>
       </c>
@@ -4336,7 +4333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>64</v>
       </c>
@@ -4344,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>64</v>
       </c>
@@ -4352,7 +4349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>65</v>
       </c>
@@ -4360,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>65</v>
       </c>
@@ -4368,7 +4365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>66</v>
       </c>
@@ -4376,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>66</v>
       </c>
@@ -4384,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>67</v>
       </c>
@@ -4392,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>67</v>
       </c>
@@ -4400,7 +4397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>68</v>
       </c>
@@ -4408,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>68</v>
       </c>
@@ -4416,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>69</v>
       </c>
@@ -4424,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>69</v>
       </c>
@@ -4432,7 +4429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>70</v>
       </c>
@@ -4440,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>71</v>
       </c>
@@ -4448,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>72</v>
       </c>
@@ -4456,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>72</v>
       </c>
@@ -4464,7 +4461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>73</v>
       </c>
@@ -4472,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>73</v>
       </c>
@@ -4480,7 +4477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>74</v>
       </c>
@@ -4488,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>74</v>
       </c>
@@ -4496,7 +4493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>75</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>75</v>
       </c>
@@ -4512,7 +4509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>76</v>
       </c>
@@ -4520,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>76</v>
       </c>
@@ -4528,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>76</v>
       </c>
@@ -4536,7 +4533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>77</v>
       </c>
@@ -4544,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>77</v>
       </c>
@@ -4552,7 +4549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>77</v>
       </c>
@@ -4560,7 +4557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>78</v>
       </c>
@@ -4568,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>78</v>
       </c>
@@ -4576,7 +4573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>78</v>
       </c>
@@ -4584,7 +4581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>79</v>
       </c>
@@ -4592,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>79</v>
       </c>
@@ -4600,7 +4597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>79</v>
       </c>
@@ -4608,7 +4605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>80</v>
       </c>
@@ -4616,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>81</v>
       </c>
@@ -4624,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>82</v>
       </c>
@@ -4632,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>83</v>
       </c>
@@ -4640,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4661,17 +4658,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="84.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="80.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>323</v>
       </c>
@@ -4688,7 +4685,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>320</v>
       </c>
@@ -4705,7 +4702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>317</v>
       </c>
@@ -4722,7 +4719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>314</v>
       </c>
@@ -4739,7 +4736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>311</v>
       </c>
@@ -4756,7 +4753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>308</v>
       </c>
@@ -4773,7 +4770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>306</v>
       </c>
@@ -4790,7 +4787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>304</v>
       </c>
@@ -4807,7 +4804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>302</v>
       </c>
@@ -4824,7 +4821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>300</v>
       </c>
@@ -4841,7 +4838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>298</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>296</v>
       </c>
@@ -4875,7 +4872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>294</v>
       </c>
@@ -4892,7 +4889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>292</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>290</v>
       </c>
@@ -4926,7 +4923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>288</v>
       </c>
@@ -4943,7 +4940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>286</v>
       </c>
@@ -4960,7 +4957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>284</v>
       </c>
@@ -4977,7 +4974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>282</v>
       </c>
@@ -4994,7 +4991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>280</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>278</v>
       </c>
@@ -5028,7 +5025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>276</v>
       </c>
@@ -5045,7 +5042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>274</v>
       </c>
@@ -5062,7 +5059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>272</v>
       </c>
@@ -5079,7 +5076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>270</v>
       </c>
@@ -5096,7 +5093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>268</v>
       </c>
@@ -5113,7 +5110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>266</v>
       </c>
@@ -5130,7 +5127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>264</v>
       </c>
@@ -5147,7 +5144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>262</v>
       </c>
@@ -5164,7 +5161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>260</v>
       </c>
@@ -5181,9 +5178,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>258</v>
@@ -5198,9 +5195,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>257</v>
@@ -5215,9 +5212,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>256</v>
@@ -5232,9 +5229,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>255</v>
@@ -5249,9 +5246,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>254</v>
@@ -5266,9 +5263,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>253</v>
@@ -5283,12 +5280,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>252</v>
@@ -5300,12 +5297,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>252</v>
@@ -5317,12 +5314,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>252</v>
@@ -5334,12 +5331,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>252</v>
@@ -5351,12 +5348,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>252</v>
@@ -5368,12 +5365,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>252</v>
@@ -5385,12 +5382,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>252</v>
@@ -5402,12 +5399,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>252</v>
@@ -5419,12 +5416,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>252</v>
@@ -5436,12 +5433,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>252</v>
@@ -5453,12 +5450,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>252</v>
@@ -5470,12 +5467,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>252</v>
@@ -5487,12 +5484,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>252</v>
@@ -5504,12 +5501,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>252</v>
@@ -5521,12 +5518,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>252</v>
@@ -5577,15 +5574,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5599,7 +5596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5613,7 +5610,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5641,7 +5638,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5664,18 +5661,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5686,7 +5683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5694,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5705,7 +5702,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -5721,18 +5718,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5767,7 +5764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -5787,7 +5784,7 @@
         <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -5802,7 +5799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -5872,10 +5869,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G6" s="2"/>
     </row>
   </sheetData>
@@ -5891,21 +5888,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5937,10 +5934,10 @@
         <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -5960,7 +5957,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>386</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -5975,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -5995,7 +5992,7 @@
         <v>384</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -6010,7 +6007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>383</v>
       </c>
@@ -6045,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>378</v>
       </c>
@@ -6080,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>372</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>367</v>
       </c>
@@ -6150,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>364</v>
       </c>
@@ -6185,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>361</v>
       </c>
@@ -6220,7 +6217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>359</v>
       </c>
@@ -6255,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>356</v>
       </c>
@@ -6290,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>353</v>
       </c>
@@ -6325,7 +6322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>351</v>
       </c>
@@ -6360,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>348</v>
       </c>
@@ -6395,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>345</v>
       </c>
@@ -6430,7 +6427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>342</v>
       </c>
@@ -6465,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>339</v>
       </c>
@@ -6500,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>336</v>
       </c>
@@ -6535,15 +6532,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F21" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5:G18" r:id="rId4" display="test@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5:G18" r:id="rId3" display="test@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
+++ b/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" firstSheet="4" activeTab="8"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="6" r:id="rId1"/>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1671,13 +1671,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1730,9 +1730,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>325</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>330</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>332</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>332</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>330</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>330</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>332</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>332</v>
       </c>
@@ -1930,13 +1930,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>249</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>246</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>245</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>239</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>238</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>237</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>229</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>228</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -2126,14 +2126,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>177</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>71</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -3071,13 +3071,13 @@
       <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>251</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>17</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>18</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>21</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>21</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>21</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>22</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>22</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>23</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>24</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>24</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>25</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>25</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>26</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>26</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>26</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>26</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>27</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>27</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>28</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>28</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>29</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>29</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>30</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>31</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>31</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>31</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>31</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>32</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>32</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>33</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>33</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>34</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>34</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>35</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>35</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>36</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>36</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>36</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>36</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>37</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>37</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>38</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>38</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>38</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>39</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>39</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>40</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>40</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>40</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>40</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>41</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>41</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>42</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>42</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>43</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>43</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>44</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>44</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>44</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>44</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>45</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>45</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>45</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>46</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>46</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>46</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>47</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>47</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>47</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>48</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>48</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>48</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>48</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>49</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>49</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>50</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>50</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>51</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>51</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>52</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>52</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>53</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>53</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>54</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>54</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>55</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>55</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>56</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>56</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>56</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>56</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>57</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>58</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>58</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>59</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>59</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>60</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>60</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>61</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>61</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>62</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>62</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>63</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>63</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>64</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>64</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>65</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>65</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>66</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>66</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>67</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>67</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>68</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>68</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>69</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>69</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>70</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>71</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>72</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>72</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>73</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>73</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>74</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>74</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>75</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>75</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>76</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>76</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>76</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>77</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>77</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>77</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>78</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>78</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>78</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>79</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>79</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>79</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>80</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>81</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>82</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>83</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4655,20 +4655,20 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="84.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="80.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>323</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>320</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>317</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>314</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>311</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>308</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>306</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>304</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>302</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>300</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>298</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>296</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>294</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>292</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>290</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>288</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>286</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>284</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>282</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>280</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>278</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>276</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>274</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>272</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>270</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>268</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>266</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>264</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>262</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>260</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>414</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>413</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>412</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>411</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>410</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>409</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>408</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>416</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>415</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>417</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>418</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>419</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>420</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>421</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>422</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>407</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>406</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>405</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>404</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>403</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>402</v>
       </c>
@@ -5574,15 +5574,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5665,14 +5665,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5715,21 +5715,21 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -5863,16 +5863,16 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
     </row>
   </sheetData>
@@ -5889,20 +5889,21 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>383</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>378</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>372</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>367</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>364</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>361</v>
       </c>
@@ -6217,7 +6218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>359</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>356</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>353</v>
       </c>
@@ -6322,7 +6323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>351</v>
       </c>
@@ -6357,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>348</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>345</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>342</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>339</v>
       </c>
@@ -6497,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>336</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
     </row>
   </sheetData>

--- a/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
+++ b/database/seeders/_nhan_vien_va_giao_vien_seeder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="456">
   <si>
     <t>Quản trị viên hệ thống</t>
   </si>
@@ -1231,9 +1231,6 @@
     <t>loai_giao_vien_id</t>
   </si>
   <si>
-    <t>https://robohash.org/sfdahjfsdhafjashjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
-  </si>
-  <si>
     <t>https://robohash.org/ddasnh423782349248728424?set=set4&amp;bgset=&amp;size=400x400</t>
   </si>
   <si>
@@ -1295,6 +1292,105 @@
   </si>
   <si>
     <t>nguyenlinh1998adhp@gmail.com</t>
+  </si>
+  <si>
+    <t>hocsinh100</t>
+  </si>
+  <si>
+    <t>hocsinh101</t>
+  </si>
+  <si>
+    <t>hocsinh102</t>
+  </si>
+  <si>
+    <t>hocsinh103</t>
+  </si>
+  <si>
+    <t>hocsinh104</t>
+  </si>
+  <si>
+    <t>hocsinh105</t>
+  </si>
+  <si>
+    <t>hocsinh106</t>
+  </si>
+  <si>
+    <t>hocsinh107</t>
+  </si>
+  <si>
+    <t>hocsinh108</t>
+  </si>
+  <si>
+    <t>hocsinh109</t>
+  </si>
+  <si>
+    <t>hocsinh110</t>
+  </si>
+  <si>
+    <t>hocsinh111</t>
+  </si>
+  <si>
+    <t>hocsinh112</t>
+  </si>
+  <si>
+    <t>hocsinh113</t>
+  </si>
+  <si>
+    <t>hocsinh114</t>
+  </si>
+  <si>
+    <t>hocsinh115</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjfsdafashjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjf43242sdhafjashjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjas647567hjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjashjfasf765asfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafja7567shjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjashj2425654fasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjashdfgdfjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjashjgagfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjashjfgadgasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjashjfytutyuasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjashjuiouiouioufasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjashjfasfteriotuweioasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjasertweyowerhjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfyruyoisdhafjashjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhafjashjfasytryrfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahjfsdhayryuroyifjashjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
+  </si>
+  <si>
+    <t>https://robohash.org/sfdahj7657fsdhafjashjfasfasfk?set=set4&amp;bgset=&amp;size=400x400</t>
   </si>
 </sst>
 </file>
@@ -4652,10 +4748,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,7 +5276,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>258</v>
@@ -5197,7 +5293,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>257</v>
@@ -5214,7 +5310,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>256</v>
@@ -5231,7 +5327,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>255</v>
@@ -5248,7 +5344,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>254</v>
@@ -5265,7 +5361,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>253</v>
@@ -5282,7 +5378,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>386</v>
@@ -5299,7 +5395,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>387</v>
@@ -5316,7 +5412,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>388</v>
@@ -5333,7 +5429,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>389</v>
@@ -5350,7 +5446,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>390</v>
@@ -5367,7 +5463,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>391</v>
@@ -5384,7 +5480,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>392</v>
@@ -5401,7 +5497,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>393</v>
@@ -5418,7 +5514,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>394</v>
@@ -5435,7 +5531,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>395</v>
@@ -5452,7 +5548,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>396</v>
@@ -5469,7 +5565,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>397</v>
@@ -5486,7 +5582,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>398</v>
@@ -5503,7 +5599,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>399</v>
@@ -5520,7 +5616,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>400</v>
@@ -5532,6 +5628,278 @@
         <v>3</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5560,9 +5928,26 @@
     <hyperlink ref="A43" r:id="rId21"/>
     <hyperlink ref="A44" r:id="rId22"/>
     <hyperlink ref="A45" r:id="rId23"/>
+    <hyperlink ref="A52:A61" r:id="rId24" display="https://robohash.org/sfdahjfsdhafjashjfasfasfk?set=set4&amp;bgset=&amp;size=400x400"/>
+    <hyperlink ref="A62" r:id="rId25"/>
+    <hyperlink ref="A63" r:id="rId26"/>
+    <hyperlink ref="A65" r:id="rId27"/>
+    <hyperlink ref="A67" r:id="rId28"/>
+    <hyperlink ref="A66" r:id="rId29"/>
+    <hyperlink ref="A64" r:id="rId30"/>
+    <hyperlink ref="A52" r:id="rId31"/>
+    <hyperlink ref="A53" r:id="rId32"/>
+    <hyperlink ref="A54" r:id="rId33"/>
+    <hyperlink ref="A55" r:id="rId34"/>
+    <hyperlink ref="A57" r:id="rId35"/>
+    <hyperlink ref="A58" r:id="rId36"/>
+    <hyperlink ref="A59" r:id="rId37"/>
+    <hyperlink ref="A60" r:id="rId38"/>
+    <hyperlink ref="A61" r:id="rId39"/>
+    <hyperlink ref="A56" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -5784,7 +6169,7 @@
         <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -5888,7 +6273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
